--- a/biology/Zoologie/Caracara_caronculé/Caracara_caronculé.xlsx
+++ b/biology/Zoologie/Caracara_caronculé/Caracara_caronculé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caracara_caroncul%C3%A9</t>
+          <t>Caracara_caronculé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalcoboenus carunculatus
 Le Caracara caronculé (Phalcoboenus carunculatus) est une espèce de rapaces de la famille des falconidés. On le trouve au sud de la Colombie et dans la majeure partie de la région andine de l'Équateur. Son habitat naturel est constitué de prairies tropicales ou subtropicales de haute altitude (entre 3000 et 4200 mètres).
